--- a/107_GO1A李_GO1A孟_GO1A森口/4_開発後シート/107_開発後シート.xlsx
+++ b/107_GO1A李_GO1A孟_GO1A森口/4_開発後シート/107_開発後シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190405\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190405\Desktop\SIC\SIC2019\107_GO1A李_GO1A孟_GO1A森口\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119822B-0520-4A58-BB94-21E203FFC756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE74F2A-C8E3-4D30-A88F-B966AA9B969C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="1785" windowWidth="17280" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発情報" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>チームNo.</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>(</t>
-  </si>
-  <si>
-    <t>GameLib</t>
   </si>
   <si>
     <t>)</t>
@@ -1342,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,9 +1504,24 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1519,115 +1531,125 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,33 +1662,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="S19" sqref="S19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2023,380 +2023,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="66"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:22" ht="36" customHeight="1">
-      <c r="A2" s="67">
+      <c r="A2" s="92">
         <v>107</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="82" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="66"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="58"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="84" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="66"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
     </row>
     <row r="4" spans="1:22" ht="36" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="82" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="66"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="81" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="81" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="83" t="s">
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="88"/>
     </row>
     <row r="7" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="76" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="56" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="92"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="76" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="56" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="92"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="92"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="92"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="92"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="92"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="92"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="68"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2449,30 +2449,30 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="66"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="1:22" ht="7.5" customHeight="1">
       <c r="A18" s="2"/>
@@ -2501,34 +2501,36 @@
     <row r="19" spans="1:22" ht="18.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="90" t="s">
+      <c r="N19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="89"/>
+      <c r="P19" s="70"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="90" t="s">
+      <c r="S19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="89"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="7"/>
       <c r="V19" s="9"/>
     </row>
@@ -2558,36 +2560,32 @@
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="111"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="7.5" customHeight="1">
@@ -2615,30 +2613,30 @@
       <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A23" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="66"/>
+      <c r="A23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="58"/>
     </row>
     <row r="24" spans="1:22" ht="7.5" customHeight="1">
       <c r="A24" s="2"/>
@@ -2669,28 +2667,28 @@
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="C25" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="1"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
+      <c r="I25" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="1"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
+      <c r="O25" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="70"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2721,272 +2719,272 @@
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="58"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" customHeight="1">
+      <c r="A28" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="66"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A28" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="69"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="75"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="72"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="72"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="78"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="72"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="78"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="72"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="78"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="72"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="78"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="72"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="78"/>
     </row>
     <row r="35" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="72"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="78"/>
     </row>
     <row r="36" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="72"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="78"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="75"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:22" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
@@ -4502,45 +4500,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A27:V27"/>
-    <mergeCell ref="A28:V37"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="F21:U21"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="A1:C1"/>
@@ -4557,11 +4516,50 @@
     <mergeCell ref="D3:V3"/>
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="K7:T7"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="K5:T5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A27:V27"/>
+    <mergeCell ref="A28:V37"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="F21:U21"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="1">
@@ -4604,17 +4602,17 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+        <v>34</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -4633,37 +4631,37 @@
       <c r="A4" s="1"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="28">
         <v>12</v>
@@ -4699,7 +4697,7 @@
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="35">
         <v>7</v>
@@ -4735,7 +4733,7 @@
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="42">
         <v>8</v>
@@ -4778,9 +4776,9 @@
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="62"/>
+        <v>47</v>
+      </c>
+      <c r="J8" s="84"/>
       <c r="K8" s="49">
         <f>K5+K6+K7</f>
         <v>14.29</v>
@@ -4816,7 +4814,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4831,7 +4829,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6013,100 +6011,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="110">
+        <v>51</v>
+      </c>
+      <c r="B2" s="100">
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2,"")</f>
         <v>107</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="104" t="str">
+      <c r="E2" s="88"/>
+      <c r="F2" s="105" t="str">
         <f>IF(NOT(ISBLANK(開発情報!D2)),開発情報!D2,"")</f>
         <v>THIEF</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A3" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="A4" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
     </row>
@@ -6115,98 +6113,98 @@
         <v>70</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="6">
         <v>80</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="99"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="39" customHeight="1">
-      <c r="A9" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="108"/>
+      <c r="A9" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="218.25" customHeight="1">
-      <c r="A10" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="A10" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="39" customHeight="1">
-      <c r="A11" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="A11" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="235.5" customHeight="1">
-      <c r="A12" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
+      <c r="A12" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="54"/>
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -6220,17 +6218,17 @@
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="232.5" customHeight="1">
-      <c r="A14" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
+      <c r="A14" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
     </row>
@@ -7354,6 +7352,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:I5"/>
@@ -7370,7 +7369,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/107_GO1A李_GO1A孟_GO1A森口/4_開発後シート/107_開発後シート.xlsx
+++ b/107_GO1A李_GO1A孟_GO1A森口/4_開発後シート/107_開発後シート.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190405\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIC2019\SIC2019\107_GO1A李_GO1A孟_GO1A森口\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119822B-0520-4A58-BB94-21E203FFC756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B9049B-1A92-439E-9F1B-1B494FC6F58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発情報" sheetId="1" r:id="rId1"/>
     <sheet name="評価" sheetId="2" r:id="rId2"/>
     <sheet name="振り返り" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>チームNo.</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>(</t>
-  </si>
-  <si>
-    <t>GameLib</t>
   </si>
   <si>
     <t>)</t>
@@ -341,8 +338,9 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>｛プレイしてもらった方には難しいと言われましたが、どのようなルートでいけばクリアできるのか等をじっくり考えて貰いたいと思っていたため実際にプレイされている方がクリアしようと凄く長い間プレイしてもらえた事が大変成功したと思いました｝。</t>
+      <t>プレイしてもらった方には難しいと言われましたが、どのようなルートでいけばクリアできるのか等をじっくり考えて貰いたいと思っていたため実際にプレイされている方がクリアしようと凄く長い間プレイしてもらえた事が大変成功したと思いました。</t>
     </r>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -362,30 +360,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>｛操作性が悪かった点（ボタン配置や、わざと慣性を利かせたのは良くなかったと思います）｝。</t>
+      <t>操作性が悪かった点（ボタン配置や、わざと慣性を利かせたのは良くなかったと思います）。</t>
     </r>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Meiryo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　作る前に操作のボタンもしっかり考えるようにすること。また画面の滑らかさや動きのアニメーションがおかしくならないように実際に動いてみたり、ネットなどで動画を調べ研究することが必要だと考えています。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>｛後は今回は一番最初に「こうしよう」と考えていたものが全て実装できなかった（スケジュール通りにいかなかった）ため、次は先生方が言っていたように「作りたいものと作れるもの」の区別等をしっかりとして、計画的な作成ができればいいなと思っています。｝</t>
-    </r>
+    <t>　　作る前に操作のボタンもしっかり考えるようにすること。また画面の滑らかさや動きのアニメーションがおかしくならないように実際に動いてみたり、ネットなどで動画を調べ研究することが必要だと考えています。後は今回は一番最初に「こうしよう」と考えていたものが全て実装できなかった（スケジュール通りにいかなかった）ため、次は先生方が言っていたように「作りたいものと作れるもの」の区別等をしっかりとして、計画的な作成ができればいいなと思っています。</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -529,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1263,37 +1243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1321,7 +1270,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1330,19 +1325,120 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1496,20 +1592,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1519,154 +1626,177 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2013,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2023,380 +2153,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="66"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="36" customHeight="1">
-      <c r="A2" s="67">
+      <c r="A2" s="90">
         <v>107</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="82" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="66"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="84" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="66"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="36" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="82" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="66"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="81" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="81" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="65"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="85"/>
       <c r="U6" s="83"/>
-      <c r="V6" s="85"/>
+      <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="76" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="56" t="s">
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="92"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="76" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="56" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="92"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="92"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="92"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="92"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="92"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="92"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="66"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2449,30 +2579,30 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="66"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" ht="7.5" customHeight="1">
       <c r="A18" s="2"/>
@@ -2501,34 +2631,36 @@
     <row r="19" spans="1:22" ht="18.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="90" t="s">
+      <c r="N19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="89"/>
+      <c r="P19" s="68"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="90" t="s">
+      <c r="S19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="89"/>
+      <c r="T19" s="68"/>
       <c r="U19" s="7"/>
       <c r="V19" s="9"/>
     </row>
@@ -2558,36 +2690,32 @@
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="7.5" customHeight="1">
@@ -2615,30 +2743,30 @@
       <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A23" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="66"/>
+      <c r="A23" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
     </row>
     <row r="24" spans="1:22" ht="7.5" customHeight="1">
       <c r="A24" s="2"/>
@@ -2669,28 +2797,28 @@
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="C25" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="1"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
+      <c r="I25" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="1"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
+      <c r="O25" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2721,272 +2849,272 @@
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" customHeight="1">
+      <c r="A28" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="66"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A28" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="73"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="72"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="76"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="72"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="76"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="72"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="76"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="72"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="76"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="72"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="76"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="72"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="76"/>
     </row>
     <row r="35" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="72"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="76"/>
     </row>
     <row r="36" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="72"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="75"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:22" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
@@ -4502,45 +4630,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A27:V27"/>
-    <mergeCell ref="A28:V37"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="F21:U21"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="A1:C1"/>
@@ -4557,11 +4646,50 @@
     <mergeCell ref="D3:V3"/>
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="K7:T7"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="K5:T5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A27:V27"/>
+    <mergeCell ref="A28:V37"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="F21:U21"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="1">
@@ -4603,18 +4731,18 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="B2" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -4633,37 +4761,37 @@
       <c r="A4" s="1"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="28">
         <v>12</v>
@@ -4699,7 +4827,7 @@
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="35">
         <v>7</v>
@@ -4735,7 +4863,7 @@
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="42">
         <v>8</v>
@@ -4777,10 +4905,10 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
-      <c r="I8" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="62"/>
+      <c r="I8" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="82"/>
       <c r="K8" s="49">
         <f>K5+K6+K7</f>
         <v>14.29</v>
@@ -4816,7 +4944,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4831,7 +4959,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6002,8 +6130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -6013,1347 +6141,1348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="110">
+      <c r="B2" s="101">
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2,"")</f>
         <v>107</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="104" t="str">
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="str">
         <f>IF(NOT(ISBLANK(開発情報!D2)),開発情報!D2,"")</f>
         <v>THIEF</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A3" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="A4" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="114">
         <v>70</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="6">
         <v>80</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="F7" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="116"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="39" customHeight="1">
-      <c r="A9" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="108"/>
+      <c r="A9" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="218.25" customHeight="1">
-      <c r="A10" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="A10" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="39" customHeight="1">
-      <c r="A11" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="A11" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="235.5" customHeight="1">
-      <c r="A12" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A13" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="A13" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="232.5" customHeight="1">
-      <c r="A14" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
+      <c r="A14" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="1:11" ht="157.5" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
     </row>
     <row r="39" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
     </row>
     <row r="58" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
     </row>
     <row r="61" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
     </row>
     <row r="64" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
     </row>
     <row r="66" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
     </row>
     <row r="76" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
     </row>
     <row r="77" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
     </row>
     <row r="83" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
     </row>
     <row r="84" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
     </row>
     <row r="87" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A92" s="53"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A93" s="53"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
     </row>
     <row r="96" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
     </row>
     <row r="97" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
     </row>
     <row r="98" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:I5"/>
@@ -7370,7 +7499,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
